--- a/PLSstatic/PLSstatic_predicted_factors_matrix_6.xlsx
+++ b/PLSstatic/PLSstatic_predicted_factors_matrix_6.xlsx
@@ -443,50 +443,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.523834722534456</v>
+        <v>-1.523834722534454</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.352245365950492</v>
+        <v>-4.988536054339994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5262281452645931</v>
+        <v>-0.5262281452645926</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6516804815234656</v>
+        <v>0.8912399176695573</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.980890093277517</v>
+        <v>0.9808900932775177</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8421046420157146</v>
+        <v>-3.508034782370383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7146042438579947</v>
+        <v>0.7146042438579954</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6638616139748221</v>
+        <v>0.5151879869131841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8051940605643109</v>
+        <v>-0.8051940605643112</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6487807621419134</v>
+        <v>-1.712685417610642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1214127429496212</v>
+        <v>-0.1214127429496217</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03287797317857456</v>
+        <v>0.9957366901830694</v>
       </c>
     </row>
   </sheetData>
